--- a/Raw Data/data_dictionary.xlsx
+++ b/Raw Data/data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dfajman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vanbui/Documents/GitHub/DATA490_Project/Raw Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C99CC66D-9AC3-4160-8652-34EF93678F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA336C8-4A72-964D-8154-A3906B59EA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3422,22 +3422,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H450"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" hidden="1"/>
+    <col min="6" max="8" width="9.1640625" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +3449,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3469,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -3485,7 +3485,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -3523,7 +3523,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -3543,7 +3543,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -3679,7 +3679,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3699,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -3719,7 +3719,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -3739,7 +3739,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>22</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>22</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
@@ -3859,7 +3859,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -3899,7 +3899,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
@@ -3919,7 +3919,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -3959,7 +3959,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>22</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>22</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -4039,7 +4039,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>22</v>
       </c>
@@ -4079,7 +4079,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
@@ -4097,7 +4097,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>22</v>
       </c>
@@ -4117,7 +4117,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>22</v>
       </c>
@@ -4157,7 +4157,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>22</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>22</v>
       </c>
@@ -4197,7 +4197,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>22</v>
       </c>
@@ -4217,7 +4217,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>22</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>22</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>22</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>29</v>
       </c>
@@ -4315,7 +4315,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
@@ -4333,7 +4333,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
@@ -4369,7 +4369,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
@@ -4387,7 +4387,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
@@ -4405,7 +4405,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
@@ -4459,7 +4459,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
@@ -4477,7 +4477,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>22</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>22</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>22</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>22</v>
       </c>
@@ -4595,7 +4595,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>22</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>22</v>
       </c>
@@ -4635,7 +4635,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
@@ -4655,7 +4655,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>22</v>
       </c>
@@ -4675,7 +4675,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>22</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>22</v>
       </c>
@@ -4715,7 +4715,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>22</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>22</v>
       </c>
@@ -4755,7 +4755,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>22</v>
       </c>
@@ -4775,7 +4775,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>22</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>22</v>
       </c>
@@ -4815,7 +4815,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>22</v>
       </c>
@@ -4835,7 +4835,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>22</v>
       </c>
@@ -4855,7 +4855,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>22</v>
       </c>
@@ -4875,7 +4875,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>22</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>22</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>22</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>22</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>22</v>
       </c>
@@ -4975,7 +4975,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>132</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>132</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>132</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>22</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>22</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>22</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>22</v>
       </c>
@@ -5107,7 +5107,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>22</v>
       </c>
@@ -5145,7 +5145,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>22</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>22</v>
       </c>
@@ -5185,7 +5185,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>22</v>
       </c>
@@ -5205,7 +5205,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>22</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>22</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>157</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>157</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>157</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>157</v>
       </c>
@@ -5325,7 +5325,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="4" t="s">
         <v>157</v>
       </c>
@@ -5345,7 +5345,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>157</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>22</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>22</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>22</v>
       </c>
@@ -5425,7 +5425,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>9</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>9</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>22</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>22</v>
       </c>
@@ -5505,7 +5505,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>9</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>9</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>22</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>22</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>9</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>9</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>9</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>9</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>9</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>9</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>9</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>9</v>
       </c>
@@ -5745,7 +5745,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>22</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>22</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>22</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>22</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>22</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>22</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>22</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>22</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>22</v>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
         <v>22</v>
       </c>
@@ -5945,7 +5945,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
         <v>22</v>
       </c>
@@ -5965,7 +5965,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
         <v>22</v>
       </c>
@@ -5985,7 +5985,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
         <v>22</v>
       </c>
@@ -6005,7 +6005,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
         <v>22</v>
       </c>
@@ -6025,7 +6025,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
         <v>22</v>
       </c>
@@ -6045,7 +6045,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
         <v>22</v>
       </c>
@@ -6065,7 +6065,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
         <v>22</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
         <v>22</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
         <v>22</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
         <v>22</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
         <v>22</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
         <v>9</v>
       </c>
@@ -6183,7 +6183,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
         <v>9</v>
       </c>
@@ -6201,7 +6201,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
         <v>9</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
         <v>9</v>
       </c>
@@ -6237,7 +6237,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
         <v>9</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
         <v>9</v>
       </c>
@@ -6273,7 +6273,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
         <v>9</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
         <v>9</v>
       </c>
@@ -6309,7 +6309,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
         <v>9</v>
       </c>
@@ -6327,7 +6327,7 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
         <v>9</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
         <v>9</v>
       </c>
@@ -6363,7 +6363,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
         <v>157</v>
       </c>
@@ -6383,7 +6383,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
         <v>157</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
         <v>157</v>
       </c>
@@ -6423,7 +6423,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
         <v>157</v>
       </c>
@@ -6443,7 +6443,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
         <v>157</v>
       </c>
@@ -6463,7 +6463,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
         <v>157</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
         <v>157</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
         <v>22</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
         <v>22</v>
       </c>
@@ -6541,7 +6541,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
         <v>22</v>
       </c>
@@ -6561,7 +6561,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
         <v>157</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
         <v>157</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
         <v>157</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
         <v>157</v>
       </c>
@@ -6639,7 +6639,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
         <v>157</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="4" t="s">
         <v>157</v>
       </c>
@@ -6679,7 +6679,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="4" t="s">
         <v>157</v>
       </c>
@@ -6699,7 +6699,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="4" t="s">
         <v>157</v>
       </c>
@@ -6719,7 +6719,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="4" t="s">
         <v>157</v>
       </c>
@@ -6739,7 +6739,7 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="4" t="s">
         <v>157</v>
       </c>
@@ -6759,7 +6759,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="4" t="s">
         <v>157</v>
       </c>
@@ -6779,7 +6779,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="4" t="s">
         <v>157</v>
       </c>
@@ -6799,7 +6799,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="4" t="s">
         <v>157</v>
       </c>
@@ -6819,7 +6819,7 @@
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="4" t="s">
         <v>157</v>
       </c>
@@ -6839,7 +6839,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="4" t="s">
         <v>157</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="4" t="s">
         <v>157</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" s="4" t="s">
         <v>157</v>
       </c>
@@ -6899,7 +6899,7 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178" s="4" t="s">
         <v>157</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179" s="4" t="s">
         <v>157</v>
       </c>
@@ -6939,7 +6939,7 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="4" t="s">
         <v>157</v>
       </c>
@@ -6959,7 +6959,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="4" t="s">
         <v>157</v>
       </c>
@@ -6979,7 +6979,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="4" t="s">
         <v>157</v>
       </c>
@@ -6999,7 +6999,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="4" t="s">
         <v>157</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="4" t="s">
         <v>157</v>
       </c>
@@ -7039,7 +7039,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="4" t="s">
         <v>157</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="4" t="s">
         <v>157</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" s="4" t="s">
         <v>157</v>
       </c>
@@ -7099,7 +7099,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" s="4" t="s">
         <v>157</v>
       </c>
@@ -7119,7 +7119,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" s="4" t="s">
         <v>157</v>
       </c>
@@ -7139,7 +7139,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" s="4" t="s">
         <v>157</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" s="4" t="s">
         <v>157</v>
       </c>
@@ -7179,7 +7179,7 @@
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" s="4" t="s">
         <v>157</v>
       </c>
@@ -7199,7 +7199,7 @@
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="4" t="s">
         <v>157</v>
       </c>
@@ -7219,7 +7219,7 @@
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="4" t="s">
         <v>157</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="4" t="s">
         <v>157</v>
       </c>
@@ -7259,7 +7259,7 @@
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="4" t="s">
         <v>157</v>
       </c>
@@ -7279,7 +7279,7 @@
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="4" t="s">
         <v>157</v>
       </c>
@@ -7299,7 +7299,7 @@
       <c r="G197" s="6"/>
       <c r="H197" s="6"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="4" t="s">
         <v>157</v>
       </c>
@@ -7319,7 +7319,7 @@
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="4" t="s">
         <v>157</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="G199" s="6"/>
       <c r="H199" s="6"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="4" t="s">
         <v>157</v>
       </c>
@@ -7359,7 +7359,7 @@
       <c r="G200" s="6"/>
       <c r="H200" s="6"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="4" t="s">
         <v>157</v>
       </c>
@@ -7379,7 +7379,7 @@
       <c r="G201" s="6"/>
       <c r="H201" s="6"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="4" t="s">
         <v>157</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="4" t="s">
         <v>157</v>
       </c>
@@ -7419,7 +7419,7 @@
       <c r="G203" s="6"/>
       <c r="H203" s="6"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204" s="4" t="s">
         <v>157</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="G204" s="6"/>
       <c r="H204" s="6"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="4" t="s">
         <v>157</v>
       </c>
@@ -7459,7 +7459,7 @@
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" s="4" t="s">
         <v>157</v>
       </c>
@@ -7479,7 +7479,7 @@
       <c r="G206" s="6"/>
       <c r="H206" s="6"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" s="4" t="s">
         <v>157</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="G207" s="6"/>
       <c r="H207" s="6"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" s="4" t="s">
         <v>157</v>
       </c>
@@ -7519,7 +7519,7 @@
       <c r="G208" s="6"/>
       <c r="H208" s="6"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="4" t="s">
         <v>157</v>
       </c>
@@ -7539,7 +7539,7 @@
       <c r="G209" s="6"/>
       <c r="H209" s="6"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="4" t="s">
         <v>157</v>
       </c>
@@ -7559,7 +7559,7 @@
       <c r="G210" s="6"/>
       <c r="H210" s="6"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="4" t="s">
         <v>157</v>
       </c>
@@ -7579,7 +7579,7 @@
       <c r="G211" s="6"/>
       <c r="H211" s="6"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="4" t="s">
         <v>157</v>
       </c>
@@ -7599,7 +7599,7 @@
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="4" t="s">
         <v>157</v>
       </c>
@@ -7619,7 +7619,7 @@
       <c r="G213" s="6"/>
       <c r="H213" s="6"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="4" t="s">
         <v>157</v>
       </c>
@@ -7639,7 +7639,7 @@
       <c r="G214" s="6"/>
       <c r="H214" s="6"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="4" t="s">
         <v>157</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="4" t="s">
         <v>157</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="G216" s="6"/>
       <c r="H216" s="6"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="4" t="s">
         <v>157</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="4" t="s">
         <v>157</v>
       </c>
@@ -7719,7 +7719,7 @@
       <c r="G218" s="6"/>
       <c r="H218" s="6"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" s="4" t="s">
         <v>157</v>
       </c>
@@ -7739,7 +7739,7 @@
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" s="4" t="s">
         <v>157</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="4" t="s">
         <v>157</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="4" t="s">
         <v>157</v>
       </c>
@@ -7799,7 +7799,7 @@
       <c r="G222" s="6"/>
       <c r="H222" s="6"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="4" t="s">
         <v>157</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="G223" s="6"/>
       <c r="H223" s="6"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="4" t="s">
         <v>157</v>
       </c>
@@ -7839,7 +7839,7 @@
       <c r="G224" s="6"/>
       <c r="H224" s="6"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" s="4" t="s">
         <v>157</v>
       </c>
@@ -7859,7 +7859,7 @@
       <c r="G225" s="6"/>
       <c r="H225" s="6"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" s="4" t="s">
         <v>157</v>
       </c>
@@ -7879,7 +7879,7 @@
       <c r="G226" s="6"/>
       <c r="H226" s="6"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="4" t="s">
         <v>157</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="G227" s="6"/>
       <c r="H227" s="6"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" s="4" t="s">
         <v>157</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" s="4" t="s">
         <v>157</v>
       </c>
@@ -7939,7 +7939,7 @@
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" s="4" t="s">
         <v>157</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" s="4" t="s">
         <v>157</v>
       </c>
@@ -7979,7 +7979,7 @@
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" s="4" t="s">
         <v>157</v>
       </c>
@@ -7999,7 +7999,7 @@
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="4" t="s">
         <v>157</v>
       </c>
@@ -8019,7 +8019,7 @@
       <c r="G233" s="6"/>
       <c r="H233" s="6"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" s="4" t="s">
         <v>157</v>
       </c>
@@ -8039,7 +8039,7 @@
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" s="4" t="s">
         <v>157</v>
       </c>
@@ -8059,7 +8059,7 @@
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" s="4" t="s">
         <v>157</v>
       </c>
@@ -8079,7 +8079,7 @@
       <c r="G236" s="6"/>
       <c r="H236" s="6"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" s="4" t="s">
         <v>157</v>
       </c>
@@ -8099,7 +8099,7 @@
       <c r="G237" s="6"/>
       <c r="H237" s="6"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" s="4" t="s">
         <v>157</v>
       </c>
@@ -8119,7 +8119,7 @@
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="4" t="s">
         <v>157</v>
       </c>
@@ -8139,7 +8139,7 @@
       <c r="G239" s="6"/>
       <c r="H239" s="6"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" s="4" t="s">
         <v>157</v>
       </c>
@@ -8159,7 +8159,7 @@
       <c r="G240" s="6"/>
       <c r="H240" s="6"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" s="4" t="s">
         <v>157</v>
       </c>
@@ -8179,7 +8179,7 @@
       <c r="G241" s="6"/>
       <c r="H241" s="6"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" s="4" t="s">
         <v>157</v>
       </c>
@@ -8199,7 +8199,7 @@
       <c r="G242" s="6"/>
       <c r="H242" s="6"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="4" t="s">
         <v>157</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="G243" s="6"/>
       <c r="H243" s="6"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="4" t="s">
         <v>157</v>
       </c>
@@ -8239,7 +8239,7 @@
       <c r="G244" s="6"/>
       <c r="H244" s="6"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
         <v>157</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" s="4" t="s">
         <v>157</v>
       </c>
@@ -8279,7 +8279,7 @@
       <c r="G246" s="6"/>
       <c r="H246" s="6"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" s="4" t="s">
         <v>157</v>
       </c>
@@ -8299,7 +8299,7 @@
       <c r="G247" s="6"/>
       <c r="H247" s="6"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="4" t="s">
         <v>157</v>
       </c>
@@ -8319,7 +8319,7 @@
       <c r="G248" s="6"/>
       <c r="H248" s="6"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" s="4" t="s">
         <v>157</v>
       </c>
@@ -8339,7 +8339,7 @@
       <c r="G249" s="6"/>
       <c r="H249" s="6"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" s="4" t="s">
         <v>157</v>
       </c>
@@ -8359,7 +8359,7 @@
       <c r="G250" s="6"/>
       <c r="H250" s="6"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="4" t="s">
         <v>157</v>
       </c>
@@ -8379,7 +8379,7 @@
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" s="4" t="s">
         <v>157</v>
       </c>
@@ -8399,7 +8399,7 @@
       <c r="G252" s="6"/>
       <c r="H252" s="6"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" s="4" t="s">
         <v>157</v>
       </c>
@@ -8419,7 +8419,7 @@
       <c r="G253" s="6"/>
       <c r="H253" s="6"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" s="4" t="s">
         <v>157</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="G254" s="6"/>
       <c r="H254" s="6"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
         <v>157</v>
       </c>
@@ -8459,7 +8459,7 @@
       <c r="G255" s="6"/>
       <c r="H255" s="6"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" s="4" t="s">
         <v>157</v>
       </c>
@@ -8479,7 +8479,7 @@
       <c r="G256" s="6"/>
       <c r="H256" s="6"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="4" t="s">
         <v>157</v>
       </c>
@@ -8499,7 +8499,7 @@
       <c r="G257" s="6"/>
       <c r="H257" s="6"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="4" t="s">
         <v>157</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="G258" s="6"/>
       <c r="H258" s="6"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="4" t="s">
         <v>157</v>
       </c>
@@ -8539,7 +8539,7 @@
       <c r="G259" s="6"/>
       <c r="H259" s="6"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="4" t="s">
         <v>157</v>
       </c>
@@ -8559,7 +8559,7 @@
       <c r="G260" s="6"/>
       <c r="H260" s="6"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="4" t="s">
         <v>157</v>
       </c>
@@ -8579,7 +8579,7 @@
       <c r="G261" s="6"/>
       <c r="H261" s="6"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="4" t="s">
         <v>157</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="G262" s="6"/>
       <c r="H262" s="6"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="4" t="s">
         <v>157</v>
       </c>
@@ -8619,7 +8619,7 @@
       <c r="G263" s="6"/>
       <c r="H263" s="6"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="4" t="s">
         <v>157</v>
       </c>
@@ -8639,7 +8639,7 @@
       <c r="G264" s="6"/>
       <c r="H264" s="6"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" s="4" t="s">
         <v>157</v>
       </c>
@@ -8659,7 +8659,7 @@
       <c r="G265" s="6"/>
       <c r="H265" s="6"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" s="4" t="s">
         <v>157</v>
       </c>
@@ -8679,7 +8679,7 @@
       <c r="G266" s="6"/>
       <c r="H266" s="6"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" s="4" t="s">
         <v>157</v>
       </c>
@@ -8699,7 +8699,7 @@
       <c r="G267" s="6"/>
       <c r="H267" s="6"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="4" t="s">
         <v>157</v>
       </c>
@@ -8719,7 +8719,7 @@
       <c r="G268" s="6"/>
       <c r="H268" s="6"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" s="4" t="s">
         <v>157</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="G269" s="6"/>
       <c r="H269" s="6"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" s="4" t="s">
         <v>157</v>
       </c>
@@ -8759,7 +8759,7 @@
       <c r="G270" s="6"/>
       <c r="H270" s="6"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" s="4" t="s">
         <v>157</v>
       </c>
@@ -8779,7 +8779,7 @@
       <c r="G271" s="6"/>
       <c r="H271" s="6"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" s="4" t="s">
         <v>157</v>
       </c>
@@ -8799,7 +8799,7 @@
       <c r="G272" s="6"/>
       <c r="H272" s="6"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" s="4" t="s">
         <v>157</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="G273" s="6"/>
       <c r="H273" s="6"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="4" t="s">
         <v>157</v>
       </c>
@@ -8839,7 +8839,7 @@
       <c r="G274" s="6"/>
       <c r="H274" s="6"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="4" t="s">
         <v>157</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="G275" s="6"/>
       <c r="H275" s="6"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="4" t="s">
         <v>157</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="G276" s="6"/>
       <c r="H276" s="6"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="4" t="s">
         <v>157</v>
       </c>
@@ -8899,7 +8899,7 @@
       <c r="G277" s="6"/>
       <c r="H277" s="6"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="4" t="s">
         <v>157</v>
       </c>
@@ -8919,7 +8919,7 @@
       <c r="G278" s="6"/>
       <c r="H278" s="6"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="4" t="s">
         <v>157</v>
       </c>
@@ -8939,7 +8939,7 @@
       <c r="G279" s="6"/>
       <c r="H279" s="6"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="4" t="s">
         <v>157</v>
       </c>
@@ -8959,7 +8959,7 @@
       <c r="G280" s="6"/>
       <c r="H280" s="6"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" s="4" t="s">
         <v>157</v>
       </c>
@@ -8977,7 +8977,7 @@
       <c r="G281" s="6"/>
       <c r="H281" s="6"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" s="4" t="s">
         <v>22</v>
       </c>
@@ -8997,7 +8997,7 @@
       <c r="G282" s="6"/>
       <c r="H282" s="6"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" s="4" t="s">
         <v>22</v>
       </c>
@@ -9017,7 +9017,7 @@
       <c r="G283" s="6"/>
       <c r="H283" s="6"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" s="4" t="s">
         <v>22</v>
       </c>
@@ -9037,7 +9037,7 @@
       <c r="G284" s="6"/>
       <c r="H284" s="6"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
         <v>22</v>
       </c>
@@ -9057,7 +9057,7 @@
       <c r="G285" s="6"/>
       <c r="H285" s="6"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="4" t="s">
         <v>22</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="G286" s="6"/>
       <c r="H286" s="6"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" s="4" t="s">
         <v>22</v>
       </c>
@@ -9097,7 +9097,7 @@
       <c r="G287" s="6"/>
       <c r="H287" s="6"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" s="4" t="s">
         <v>22</v>
       </c>
@@ -9117,7 +9117,7 @@
       <c r="G288" s="6"/>
       <c r="H288" s="6"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" s="4" t="s">
         <v>22</v>
       </c>
@@ -9137,7 +9137,7 @@
       <c r="G289" s="6"/>
       <c r="H289" s="6"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" s="4" t="s">
         <v>22</v>
       </c>
@@ -9157,7 +9157,7 @@
       <c r="G290" s="6"/>
       <c r="H290" s="6"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" s="4" t="s">
         <v>22</v>
       </c>
@@ -9177,7 +9177,7 @@
       <c r="G291" s="6"/>
       <c r="H291" s="6"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" s="4" t="s">
         <v>22</v>
       </c>
@@ -9197,7 +9197,7 @@
       <c r="G292" s="6"/>
       <c r="H292" s="6"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" s="4" t="s">
         <v>22</v>
       </c>
@@ -9217,7 +9217,7 @@
       <c r="G293" s="6"/>
       <c r="H293" s="6"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" s="4" t="s">
         <v>22</v>
       </c>
@@ -9237,7 +9237,7 @@
       <c r="G294" s="6"/>
       <c r="H294" s="6"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" s="4" t="s">
         <v>22</v>
       </c>
@@ -9257,7 +9257,7 @@
       <c r="G295" s="6"/>
       <c r="H295" s="6"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" s="4" t="s">
         <v>22</v>
       </c>
@@ -9277,7 +9277,7 @@
       <c r="G296" s="6"/>
       <c r="H296" s="6"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" s="4" t="s">
         <v>22</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="G297" s="6"/>
       <c r="H297" s="6"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" s="4" t="s">
         <v>22</v>
       </c>
@@ -9317,7 +9317,7 @@
       <c r="G298" s="6"/>
       <c r="H298" s="6"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" s="4" t="s">
         <v>22</v>
       </c>
@@ -9337,7 +9337,7 @@
       <c r="G299" s="6"/>
       <c r="H299" s="6"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" s="4" t="s">
         <v>22</v>
       </c>
@@ -9357,7 +9357,7 @@
       <c r="G300" s="6"/>
       <c r="H300" s="6"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" s="4" t="s">
         <v>22</v>
       </c>
@@ -9377,7 +9377,7 @@
       <c r="G301" s="6"/>
       <c r="H301" s="6"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" s="4" t="s">
         <v>22</v>
       </c>
@@ -9397,7 +9397,7 @@
       <c r="G302" s="6"/>
       <c r="H302" s="6"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" s="4" t="s">
         <v>22</v>
       </c>
@@ -9417,7 +9417,7 @@
       <c r="G303" s="6"/>
       <c r="H303" s="6"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" s="4" t="s">
         <v>22</v>
       </c>
@@ -9437,7 +9437,7 @@
       <c r="G304" s="6"/>
       <c r="H304" s="6"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="4" t="s">
         <v>22</v>
       </c>
@@ -9457,7 +9457,7 @@
       <c r="G305" s="6"/>
       <c r="H305" s="6"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="4" t="s">
         <v>22</v>
       </c>
@@ -9477,7 +9477,7 @@
       <c r="G306" s="6"/>
       <c r="H306" s="6"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="4" t="s">
         <v>22</v>
       </c>
@@ -9497,7 +9497,7 @@
       <c r="G307" s="6"/>
       <c r="H307" s="6"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="4" t="s">
         <v>22</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="G308" s="6"/>
       <c r="H308" s="6"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="4" t="s">
         <v>22</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="G309" s="6"/>
       <c r="H309" s="6"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="4" t="s">
         <v>22</v>
       </c>
@@ -9557,7 +9557,7 @@
       <c r="G310" s="6"/>
       <c r="H310" s="6"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="4" t="s">
         <v>22</v>
       </c>
@@ -9577,7 +9577,7 @@
       <c r="G311" s="6"/>
       <c r="H311" s="6"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="4" t="s">
         <v>22</v>
       </c>
@@ -9597,7 +9597,7 @@
       <c r="G312" s="6"/>
       <c r="H312" s="6"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="4" t="s">
         <v>22</v>
       </c>
@@ -9615,7 +9615,7 @@
       <c r="G313" s="6"/>
       <c r="H313" s="6"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="4" t="s">
         <v>22</v>
       </c>
@@ -9633,7 +9633,7 @@
       <c r="G314" s="6"/>
       <c r="H314" s="6"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="4" t="s">
         <v>22</v>
       </c>
@@ -9651,7 +9651,7 @@
       <c r="G315" s="6"/>
       <c r="H315" s="6"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" s="4" t="s">
         <v>22</v>
       </c>
@@ -9669,7 +9669,7 @@
       <c r="G316" s="6"/>
       <c r="H316" s="6"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="4" t="s">
         <v>22</v>
       </c>
@@ -9687,7 +9687,7 @@
       <c r="G317" s="6"/>
       <c r="H317" s="6"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="4" t="s">
         <v>22</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="G318" s="6"/>
       <c r="H318" s="6"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="4" t="s">
         <v>22</v>
       </c>
@@ -9723,7 +9723,7 @@
       <c r="G319" s="6"/>
       <c r="H319" s="6"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="4" t="s">
         <v>22</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="G320" s="6"/>
       <c r="H320" s="6"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" s="4" t="s">
         <v>22</v>
       </c>
@@ -9763,7 +9763,7 @@
       <c r="G321" s="6"/>
       <c r="H321" s="6"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="4" t="s">
         <v>22</v>
       </c>
@@ -9783,7 +9783,7 @@
       <c r="G322" s="6"/>
       <c r="H322" s="6"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" s="4" t="s">
         <v>22</v>
       </c>
@@ -9801,7 +9801,7 @@
       <c r="G323" s="6"/>
       <c r="H323" s="6"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" s="4" t="s">
         <v>22</v>
       </c>
@@ -9819,7 +9819,7 @@
       <c r="G324" s="6"/>
       <c r="H324" s="6"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" s="4" t="s">
         <v>22</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="G325" s="6"/>
       <c r="H325" s="6"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" s="4" t="s">
         <v>22</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="G326" s="6"/>
       <c r="H326" s="6"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" s="4" t="s">
         <v>22</v>
       </c>
@@ -9877,7 +9877,7 @@
       <c r="G327" s="6"/>
       <c r="H327" s="6"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" s="4" t="s">
         <v>22</v>
       </c>
@@ -9897,7 +9897,7 @@
       <c r="G328" s="6"/>
       <c r="H328" s="6"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" s="4" t="s">
         <v>22</v>
       </c>
@@ -9917,7 +9917,7 @@
       <c r="G329" s="6"/>
       <c r="H329" s="6"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" s="4" t="s">
         <v>22</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="G330" s="6"/>
       <c r="H330" s="6"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" s="4" t="s">
         <v>22</v>
       </c>
@@ -9957,7 +9957,7 @@
       <c r="G331" s="6"/>
       <c r="H331" s="6"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" s="4" t="s">
         <v>22</v>
       </c>
@@ -9977,7 +9977,7 @@
       <c r="G332" s="6"/>
       <c r="H332" s="6"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" s="4" t="s">
         <v>22</v>
       </c>
@@ -9997,7 +9997,7 @@
       <c r="G333" s="6"/>
       <c r="H333" s="6"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" s="4" t="s">
         <v>22</v>
       </c>
@@ -10017,7 +10017,7 @@
       <c r="G334" s="6"/>
       <c r="H334" s="6"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" s="4" t="s">
         <v>22</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="G335" s="6"/>
       <c r="H335" s="6"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="4" t="s">
         <v>22</v>
       </c>
@@ -10057,7 +10057,7 @@
       <c r="G336" s="6"/>
       <c r="H336" s="6"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" s="4" t="s">
         <v>22</v>
       </c>
@@ -10077,7 +10077,7 @@
       <c r="G337" s="6"/>
       <c r="H337" s="6"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" s="4" t="s">
         <v>22</v>
       </c>
@@ -10097,7 +10097,7 @@
       <c r="G338" s="6"/>
       <c r="H338" s="6"/>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" s="4" t="s">
         <v>22</v>
       </c>
@@ -10117,7 +10117,7 @@
       <c r="G339" s="6"/>
       <c r="H339" s="6"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" s="4" t="s">
         <v>22</v>
       </c>
@@ -10137,7 +10137,7 @@
       <c r="G340" s="6"/>
       <c r="H340" s="6"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" s="4" t="s">
         <v>566</v>
       </c>
@@ -10157,7 +10157,7 @@
       <c r="G341" s="6"/>
       <c r="H341" s="6"/>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" s="4" t="s">
         <v>566</v>
       </c>
@@ -10177,7 +10177,7 @@
       <c r="G342" s="6"/>
       <c r="H342" s="6"/>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343" s="4" t="s">
         <v>566</v>
       </c>
@@ -10197,7 +10197,7 @@
       <c r="G343" s="6"/>
       <c r="H343" s="6"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344" s="4" t="s">
         <v>566</v>
       </c>
@@ -10217,7 +10217,7 @@
       <c r="G344" s="6"/>
       <c r="H344" s="6"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345" s="4" t="s">
         <v>566</v>
       </c>
@@ -10237,7 +10237,7 @@
       <c r="G345" s="6"/>
       <c r="H345" s="6"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346" s="4" t="s">
         <v>566</v>
       </c>
@@ -10257,7 +10257,7 @@
       <c r="G346" s="6"/>
       <c r="H346" s="6"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347" s="4" t="s">
         <v>566</v>
       </c>
@@ -10277,7 +10277,7 @@
       <c r="G347" s="6"/>
       <c r="H347" s="6"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348" s="4" t="s">
         <v>566</v>
       </c>
@@ -10297,7 +10297,7 @@
       <c r="G348" s="6"/>
       <c r="H348" s="6"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349" s="4" t="s">
         <v>566</v>
       </c>
@@ -10317,7 +10317,7 @@
       <c r="G349" s="6"/>
       <c r="H349" s="6"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" s="4" t="s">
         <v>566</v>
       </c>
@@ -10337,7 +10337,7 @@
       <c r="G350" s="6"/>
       <c r="H350" s="6"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" s="4" t="s">
         <v>566</v>
       </c>
@@ -10357,7 +10357,7 @@
       <c r="G351" s="6"/>
       <c r="H351" s="6"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" s="4" t="s">
         <v>566</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="G352" s="6"/>
       <c r="H352" s="6"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353" s="4" t="s">
         <v>566</v>
       </c>
@@ -10397,7 +10397,7 @@
       <c r="G353" s="6"/>
       <c r="H353" s="6"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A354" s="4" t="s">
         <v>566</v>
       </c>
@@ -10417,7 +10417,7 @@
       <c r="G354" s="6"/>
       <c r="H354" s="6"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A355" s="4" t="s">
         <v>566</v>
       </c>
@@ -10437,7 +10437,7 @@
       <c r="G355" s="6"/>
       <c r="H355" s="6"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A356" s="4" t="s">
         <v>566</v>
       </c>
@@ -10457,7 +10457,7 @@
       <c r="G356" s="6"/>
       <c r="H356" s="6"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A357" s="4" t="s">
         <v>566</v>
       </c>
@@ -10477,7 +10477,7 @@
       <c r="G357" s="6"/>
       <c r="H357" s="6"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A358" s="4" t="s">
         <v>566</v>
       </c>
@@ -10497,7 +10497,7 @@
       <c r="G358" s="6"/>
       <c r="H358" s="6"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A359" s="4" t="s">
         <v>566</v>
       </c>
@@ -10517,7 +10517,7 @@
       <c r="G359" s="6"/>
       <c r="H359" s="6"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A360" s="4" t="s">
         <v>566</v>
       </c>
@@ -10537,7 +10537,7 @@
       <c r="G360" s="6"/>
       <c r="H360" s="6"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A361" s="4" t="s">
         <v>566</v>
       </c>
@@ -10557,7 +10557,7 @@
       <c r="G361" s="6"/>
       <c r="H361" s="6"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A362" s="4" t="s">
         <v>566</v>
       </c>
@@ -10577,7 +10577,7 @@
       <c r="G362" s="6"/>
       <c r="H362" s="6"/>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A363" s="4" t="s">
         <v>566</v>
       </c>
@@ -10597,7 +10597,7 @@
       <c r="G363" s="6"/>
       <c r="H363" s="6"/>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A364" s="4" t="s">
         <v>566</v>
       </c>
@@ -10617,7 +10617,7 @@
       <c r="G364" s="6"/>
       <c r="H364" s="6"/>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A365" s="4" t="s">
         <v>566</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="G365" s="6"/>
       <c r="H365" s="6"/>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A366" s="4" t="s">
         <v>566</v>
       </c>
@@ -10657,7 +10657,7 @@
       <c r="G366" s="6"/>
       <c r="H366" s="6"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A367" s="4" t="s">
         <v>566</v>
       </c>
@@ -10677,7 +10677,7 @@
       <c r="G367" s="6"/>
       <c r="H367" s="6"/>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A368" s="4" t="s">
         <v>566</v>
       </c>
@@ -10697,7 +10697,7 @@
       <c r="G368" s="6"/>
       <c r="H368" s="6"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A369" s="4" t="s">
         <v>566</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="G369" s="6"/>
       <c r="H369" s="6"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A370" s="4" t="s">
         <v>566</v>
       </c>
@@ -10737,7 +10737,7 @@
       <c r="G370" s="6"/>
       <c r="H370" s="6"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A371" s="4" t="s">
         <v>566</v>
       </c>
@@ -10757,7 +10757,7 @@
       <c r="G371" s="6"/>
       <c r="H371" s="6"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A372" s="4" t="s">
         <v>566</v>
       </c>
@@ -10777,7 +10777,7 @@
       <c r="G372" s="6"/>
       <c r="H372" s="6"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A373" s="4" t="s">
         <v>566</v>
       </c>
@@ -10797,7 +10797,7 @@
       <c r="G373" s="6"/>
       <c r="H373" s="6"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A374" s="4" t="s">
         <v>566</v>
       </c>
@@ -10817,7 +10817,7 @@
       <c r="G374" s="6"/>
       <c r="H374" s="6"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A375" s="4" t="s">
         <v>566</v>
       </c>
@@ -10837,7 +10837,7 @@
       <c r="G375" s="6"/>
       <c r="H375" s="6"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A376" s="4" t="s">
         <v>566</v>
       </c>
@@ -10857,7 +10857,7 @@
       <c r="G376" s="6"/>
       <c r="H376" s="6"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A377" s="4" t="s">
         <v>566</v>
       </c>
@@ -10877,7 +10877,7 @@
       <c r="G377" s="6"/>
       <c r="H377" s="6"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A378" s="4" t="s">
         <v>566</v>
       </c>
@@ -10897,7 +10897,7 @@
       <c r="G378" s="6"/>
       <c r="H378" s="6"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A379" s="4" t="s">
         <v>566</v>
       </c>
@@ -10917,7 +10917,7 @@
       <c r="G379" s="6"/>
       <c r="H379" s="6"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A380" s="4" t="s">
         <v>566</v>
       </c>
@@ -10937,7 +10937,7 @@
       <c r="G380" s="6"/>
       <c r="H380" s="6"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A381" s="4" t="s">
         <v>566</v>
       </c>
@@ -10957,7 +10957,7 @@
       <c r="G381" s="6"/>
       <c r="H381" s="6"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A382" s="4" t="s">
         <v>566</v>
       </c>
@@ -10977,7 +10977,7 @@
       <c r="G382" s="6"/>
       <c r="H382" s="6"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A383" s="4" t="s">
         <v>566</v>
       </c>
@@ -10997,7 +10997,7 @@
       <c r="G383" s="6"/>
       <c r="H383" s="6"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A384" s="4" t="s">
         <v>566</v>
       </c>
@@ -11017,7 +11017,7 @@
       <c r="G384" s="6"/>
       <c r="H384" s="6"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A385" s="4" t="s">
         <v>566</v>
       </c>
@@ -11037,7 +11037,7 @@
       <c r="G385" s="6"/>
       <c r="H385" s="6"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A386" s="4" t="s">
         <v>566</v>
       </c>
@@ -11057,7 +11057,7 @@
       <c r="G386" s="6"/>
       <c r="H386" s="6"/>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A387" s="4" t="s">
         <v>566</v>
       </c>
@@ -11077,7 +11077,7 @@
       <c r="G387" s="6"/>
       <c r="H387" s="6"/>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A388" s="4" t="s">
         <v>566</v>
       </c>
@@ -11097,7 +11097,7 @@
       <c r="G388" s="6"/>
       <c r="H388" s="6"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A389" s="4" t="s">
         <v>566</v>
       </c>
@@ -11117,7 +11117,7 @@
       <c r="G389" s="6"/>
       <c r="H389" s="6"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A390" s="4" t="s">
         <v>566</v>
       </c>
@@ -11137,7 +11137,7 @@
       <c r="G390" s="6"/>
       <c r="H390" s="6"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A391" s="4" t="s">
         <v>566</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="G391" s="6"/>
       <c r="H391" s="6"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A392" s="4" t="s">
         <v>566</v>
       </c>
@@ -11177,7 +11177,7 @@
       <c r="G392" s="6"/>
       <c r="H392" s="6"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A393" s="4" t="s">
         <v>566</v>
       </c>
@@ -11197,7 +11197,7 @@
       <c r="G393" s="6"/>
       <c r="H393" s="6"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A394" s="4" t="s">
         <v>566</v>
       </c>
@@ -11217,7 +11217,7 @@
       <c r="G394" s="6"/>
       <c r="H394" s="6"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A395" s="4" t="s">
         <v>566</v>
       </c>
@@ -11237,7 +11237,7 @@
       <c r="G395" s="6"/>
       <c r="H395" s="6"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A396" s="4" t="s">
         <v>566</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="G396" s="6"/>
       <c r="H396" s="6"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A397" s="4" t="s">
         <v>566</v>
       </c>
@@ -11277,7 +11277,7 @@
       <c r="G397" s="6"/>
       <c r="H397" s="6"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A398" s="4" t="s">
         <v>566</v>
       </c>
@@ -11297,7 +11297,7 @@
       <c r="G398" s="6"/>
       <c r="H398" s="6"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A399" s="4" t="s">
         <v>566</v>
       </c>
@@ -11317,7 +11317,7 @@
       <c r="G399" s="6"/>
       <c r="H399" s="6"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A400" s="4" t="s">
         <v>566</v>
       </c>
@@ -11337,7 +11337,7 @@
       <c r="G400" s="6"/>
       <c r="H400" s="6"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A401" s="4" t="s">
         <v>566</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="G401" s="6"/>
       <c r="H401" s="6"/>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A402" s="4" t="s">
         <v>566</v>
       </c>
@@ -11377,7 +11377,7 @@
       <c r="G402" s="6"/>
       <c r="H402" s="6"/>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A403" s="4" t="s">
         <v>566</v>
       </c>
@@ -11397,7 +11397,7 @@
       <c r="G403" s="6"/>
       <c r="H403" s="6"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A404" s="4" t="s">
         <v>566</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="G404" s="6"/>
       <c r="H404" s="6"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A405" s="4" t="s">
         <v>566</v>
       </c>
@@ -11437,7 +11437,7 @@
       <c r="G405" s="6"/>
       <c r="H405" s="6"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A406" s="4" t="s">
         <v>566</v>
       </c>
@@ -11457,7 +11457,7 @@
       <c r="G406" s="6"/>
       <c r="H406" s="6"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A407" s="4" t="s">
         <v>566</v>
       </c>
@@ -11477,7 +11477,7 @@
       <c r="G407" s="6"/>
       <c r="H407" s="6"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A408" s="4" t="s">
         <v>566</v>
       </c>
@@ -11497,7 +11497,7 @@
       <c r="G408" s="6"/>
       <c r="H408" s="6"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A409" s="4" t="s">
         <v>566</v>
       </c>
@@ -11517,7 +11517,7 @@
       <c r="G409" s="6"/>
       <c r="H409" s="6"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A410" s="4" t="s">
         <v>566</v>
       </c>
@@ -11537,7 +11537,7 @@
       <c r="G410" s="6"/>
       <c r="H410" s="6"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A411" s="4" t="s">
         <v>566</v>
       </c>
@@ -11557,7 +11557,7 @@
       <c r="G411" s="6"/>
       <c r="H411" s="6"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A412" s="4" t="s">
         <v>566</v>
       </c>
@@ -11577,7 +11577,7 @@
       <c r="G412" s="6"/>
       <c r="H412" s="6"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A413" s="4" t="s">
         <v>566</v>
       </c>
@@ -11597,7 +11597,7 @@
       <c r="G413" s="6"/>
       <c r="H413" s="6"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A414" s="4" t="s">
         <v>566</v>
       </c>
@@ -11617,7 +11617,7 @@
       <c r="G414" s="6"/>
       <c r="H414" s="6"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A415" s="4" t="s">
         <v>566</v>
       </c>
@@ -11637,7 +11637,7 @@
       <c r="G415" s="6"/>
       <c r="H415" s="6"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A416" s="4" t="s">
         <v>566</v>
       </c>
@@ -11657,7 +11657,7 @@
       <c r="G416" s="6"/>
       <c r="H416" s="6"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A417" s="4" t="s">
         <v>566</v>
       </c>
@@ -11677,7 +11677,7 @@
       <c r="G417" s="6"/>
       <c r="H417" s="6"/>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A418" s="4" t="s">
         <v>566</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="G418" s="6"/>
       <c r="H418" s="6"/>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A419" s="4" t="s">
         <v>566</v>
       </c>
@@ -11717,7 +11717,7 @@
       <c r="G419" s="6"/>
       <c r="H419" s="6"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A420" s="4" t="s">
         <v>566</v>
       </c>
@@ -11737,7 +11737,7 @@
       <c r="G420" s="6"/>
       <c r="H420" s="6"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A421" s="4" t="s">
         <v>566</v>
       </c>
@@ -11757,7 +11757,7 @@
       <c r="G421" s="6"/>
       <c r="H421" s="6"/>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A422" s="4" t="s">
         <v>566</v>
       </c>
@@ -11777,7 +11777,7 @@
       <c r="G422" s="6"/>
       <c r="H422" s="6"/>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A423" s="4" t="s">
         <v>566</v>
       </c>
@@ -11797,7 +11797,7 @@
       <c r="G423" s="6"/>
       <c r="H423" s="6"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A424" s="4" t="s">
         <v>566</v>
       </c>
@@ -11817,7 +11817,7 @@
       <c r="G424" s="6"/>
       <c r="H424" s="6"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A425" s="4" t="s">
         <v>566</v>
       </c>
@@ -11837,7 +11837,7 @@
       <c r="G425" s="6"/>
       <c r="H425" s="6"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A426" s="4" t="s">
         <v>566</v>
       </c>
@@ -11857,7 +11857,7 @@
       <c r="G426" s="6"/>
       <c r="H426" s="6"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A427" s="4" t="s">
         <v>566</v>
       </c>
@@ -11877,7 +11877,7 @@
       <c r="G427" s="6"/>
       <c r="H427" s="6"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A428" s="4" t="s">
         <v>566</v>
       </c>
@@ -11897,7 +11897,7 @@
       <c r="G428" s="6"/>
       <c r="H428" s="6"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A429" s="4" t="s">
         <v>566</v>
       </c>
@@ -11917,7 +11917,7 @@
       <c r="G429" s="6"/>
       <c r="H429" s="6"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A430" s="4" t="s">
         <v>566</v>
       </c>
@@ -11937,7 +11937,7 @@
       <c r="G430" s="6"/>
       <c r="H430" s="6"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A431" s="4" t="s">
         <v>566</v>
       </c>
@@ -11957,7 +11957,7 @@
       <c r="G431" s="6"/>
       <c r="H431" s="6"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A432" s="4" t="s">
         <v>566</v>
       </c>
@@ -11977,7 +11977,7 @@
       <c r="G432" s="6"/>
       <c r="H432" s="6"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A433" s="4" t="s">
         <v>566</v>
       </c>
@@ -11997,7 +11997,7 @@
       <c r="G433" s="6"/>
       <c r="H433" s="6"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A434" s="4" t="s">
         <v>566</v>
       </c>
@@ -12017,7 +12017,7 @@
       <c r="G434" s="6"/>
       <c r="H434" s="6"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A435" s="4" t="s">
         <v>566</v>
       </c>
@@ -12037,7 +12037,7 @@
       <c r="G435" s="6"/>
       <c r="H435" s="6"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A436" s="4" t="s">
         <v>566</v>
       </c>
@@ -12057,7 +12057,7 @@
       <c r="G436" s="6"/>
       <c r="H436" s="6"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A437" s="4" t="s">
         <v>566</v>
       </c>
@@ -12077,7 +12077,7 @@
       <c r="G437" s="6"/>
       <c r="H437" s="6"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A438" s="4" t="s">
         <v>566</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="G438" s="6"/>
       <c r="H438" s="6"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A439" s="4" t="s">
         <v>566</v>
       </c>
@@ -12117,7 +12117,7 @@
       <c r="G439" s="6"/>
       <c r="H439" s="6"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A440" s="4" t="s">
         <v>22</v>
       </c>
@@ -12135,7 +12135,7 @@
       <c r="G440" s="6"/>
       <c r="H440" s="6"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A441" s="4" t="s">
         <v>22</v>
       </c>
@@ -12155,7 +12155,7 @@
       <c r="G441" s="6"/>
       <c r="H441" s="6"/>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A442" s="4" t="s">
         <v>22</v>
       </c>
@@ -12175,7 +12175,7 @@
       <c r="G442" s="6"/>
       <c r="H442" s="6"/>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6"/>
@@ -12185,7 +12185,7 @@
       <c r="G443" s="6"/>
       <c r="H443" s="6"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6"/>
@@ -12195,7 +12195,7 @@
       <c r="G444" s="6"/>
       <c r="H444" s="6"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6"/>
@@ -12205,7 +12205,7 @@
       <c r="G445" s="6"/>
       <c r="H445" s="6"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6"/>
@@ -12215,7 +12215,7 @@
       <c r="G446" s="6"/>
       <c r="H446" s="6"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6"/>
@@ -12225,7 +12225,7 @@
       <c r="G447" s="6"/>
       <c r="H447" s="6"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6"/>
@@ -12235,7 +12235,7 @@
       <c r="G448" s="6"/>
       <c r="H448" s="6"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6"/>
@@ -12245,7 +12245,7 @@
       <c r="G449" s="6"/>
       <c r="H449" s="6"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6"/>
